--- a/docs/shrcore/shr-core-Encounter-model.xlsx
+++ b/docs/shrcore/shr-core-Encounter-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="152">
   <si>
     <t>Path</t>
   </si>
@@ -370,10 +370,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1553854
-</t>
   </si>
   <si>
     <t>shr-core-Encounter-model.participation.participationPeriod</t>
@@ -661,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2910,7 +2906,7 @@
         <v>110</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>36</v>
@@ -2942,7 +2938,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -2968,10 +2964,10 @@
         <v>62</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3022,7 +3018,7 @@
         <v>36</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>37</v>
@@ -3039,7 +3035,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3062,13 +3058,13 @@
         <v>36</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="L25" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3119,7 +3115,7 @@
         <v>36</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>37</v>
@@ -3136,7 +3132,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3159,13 +3155,13 @@
         <v>36</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="L26" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3216,7 +3212,7 @@
         <v>36</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>37</v>
@@ -3233,7 +3229,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3256,13 +3252,13 @@
         <v>36</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K27" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="L27" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3298,7 +3294,7 @@
         <v>36</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>36</v>
@@ -3313,7 +3309,7 @@
         <v>36</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>37</v>
@@ -3330,7 +3326,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3356,10 +3352,10 @@
         <v>45</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3386,15 +3382,15 @@
         <v>36</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>36</v>
       </c>
@@ -3408,7 +3404,7 @@
         <v>36</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>37</v>
@@ -3425,7 +3421,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3448,13 +3444,13 @@
         <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="L29" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3503,7 +3499,7 @@
         <v>93</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>37</v>
@@ -3520,10 +3516,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>36</v>
@@ -3545,13 +3541,13 @@
         <v>36</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3602,7 +3598,7 @@
         <v>36</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>37</v>
@@ -3619,10 +3615,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>36</v>
@@ -3644,13 +3640,13 @@
         <v>36</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="L31" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3701,7 +3697,7 @@
         <v>36</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>37</v>
@@ -3718,10 +3714,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>36</v>
@@ -3743,13 +3739,13 @@
         <v>36</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -3800,7 +3796,7 @@
         <v>36</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>37</v>
@@ -3817,7 +3813,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -3840,13 +3836,13 @@
         <v>36</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="L33" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -3897,7 +3893,7 @@
         <v>36</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>37</v>
@@ -3914,7 +3910,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -3937,13 +3933,13 @@
         <v>36</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K34" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="L34" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -3994,7 +3990,7 @@
         <v>36</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>37</v>
